--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -6269,7 +6269,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 9:41:29 AM</t>
+            <t xml:space="preserve">5/14/2024 1:00:46 PM</t>
           </r>
           <r>
             <rPr>
@@ -6330,6 +6330,18 @@
             </rPr>
             <t xml:space="preserve"> 
 </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="10"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">12/30/1899 12:00:00 AM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -6269,7 +6269,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 1:00:46 PM</t>
+            <t xml:space="preserve">5/14/2024 2:56:40 PM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -6269,7 +6269,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 2:56:40 PM</t>
+            <t xml:space="preserve">5/14/2024 3:38:40 PM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -6269,7 +6269,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 3:38:40 PM</t>
+            <t xml:space="preserve">5/15/2024 4:13:10 PM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -5789,7 +5789,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/20/2024 11:15:11 AM</t>
+            <t xml:space="preserve">5/20/2024 2:32:59 PM</t>
           </r>
           <r>
             <rPr>
@@ -5856,6 +5856,18 @@
               <b val="0"/>
               <i val="0"/>
               <strike val="0"/>
+              <u val="none"/>
+              <sz val="10"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">12/30/1899 12:00:00 AM</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
               <sz val="1.99987402368355"/>
               <color theme="1"/>
               <rFont val="Calibri"/>
@@ -7929,7 +7941,7 @@
       </c>
       <c s="8" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">F 2647-1 NORTH RD FST</t>
+          <t xml:space="preserve">F 2631-1 NORTH RD FST</t>
         </is>
       </c>
       <c s="7" r="E35">

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -4154,7 +4154,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/23/2024 5:36:18 PM</t>
+            <t xml:space="preserve">5/24/2024 9:44:10 AM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -3773,7 +3773,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/5/2024 10:14:29 AM</t>
+            <t xml:space="preserve">6/5/2024 1:45:25 PM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -9437,7 +9437,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/17/2024 3:26:48 PM</t>
+            <t xml:space="preserve">6/18/2024 8:00:39 AM</t>
           </r>
           <r>
             <rPr>
@@ -10237,7 +10237,7 @@
       </c>
       <c s="8" t="inlineStr" r="D13">
         <is>
-          <t xml:space="preserve">F 14-1 RED CYPRESS CT FST</t>
+          <t xml:space="preserve">F 14-2 RED CYPRESS CT FST</t>
         </is>
       </c>
       <c s="7" r="E13">
@@ -11621,7 +11621,7 @@
       </c>
       <c s="8" t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">F 225-1 SILVER MAPLE DR FST</t>
+          <t xml:space="preserve">F 225-2 SILVER MAPLE DR FST</t>
         </is>
       </c>
       <c s="7" r="E36">
@@ -13061,7 +13061,7 @@
       </c>
       <c s="8" t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">F 250-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 250-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E60">
@@ -13725,7 +13725,7 @@
       </c>
       <c s="8" t="inlineStr" r="D71">
         <is>
-          <t xml:space="preserve">F 260-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 260-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E71">
@@ -14149,11 +14149,11 @@
     <row r="78" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B78"/>
       <c s="7" r="C78">
-        <v>137261102</v>
+        <v>137258026</v>
       </c>
       <c s="8" t="inlineStr" r="D78">
         <is>
-          <t xml:space="preserve">F 275-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 275-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E78">
@@ -14161,7 +14161,7 @@
       </c>
       <c s="8" t="inlineStr" r="F78">
         <is>
-          <t xml:space="preserve">PON2140PC, 657-660</t>
+          <t xml:space="preserve">PON2140PC, 565-568</t>
         </is>
       </c>
       <c s="7" r="G78">
@@ -14181,13 +14181,13 @@
       <c s="8" t="str" r="K78"/>
       <c s="8" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">275</t>
+          <t xml:space="preserve">265</t>
         </is>
       </c>
       <c s="8" t="str" r="M78"/>
       <c s="8" t="inlineStr" r="N78">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O78"/>
@@ -14215,11 +14215,11 @@
       <c s="9" t="str" r="AH78"/>
     </row>
     <row r="79" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B79"/>
-      <c s="10" t="str" r="C79"/>
-      <c s="10" t="str" r="D79"/>
-      <c s="10" t="str" r="E79"/>
-      <c s="10" t="str" r="F79"/>
+      <c s="11" t="str" r="B79"/>
+      <c s="11" t="str" r="C79"/>
+      <c s="11" t="str" r="D79"/>
+      <c s="11" t="str" r="E79"/>
+      <c s="11" t="str" r="F79"/>
       <c s="7" r="G79">
         <v>2</v>
       </c>
@@ -14237,13 +14237,13 @@
       <c s="8" t="str" r="K79"/>
       <c s="8" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">265</t>
+          <t xml:space="preserve">275</t>
         </is>
       </c>
       <c s="8" t="str" r="M79"/>
       <c s="8" t="inlineStr" r="N79">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O79"/>
@@ -14271,25 +14271,13 @@
       <c s="9" t="str" r="AH79"/>
     </row>
     <row r="80" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B80"/>
-      <c s="7" r="C80">
-        <v>137258026</v>
-      </c>
-      <c s="8" t="inlineStr" r="D80">
-        <is>
-          <t xml:space="preserve">F 275-2 GARDEN AVE FST</t>
-        </is>
-      </c>
-      <c s="7" r="E80">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F80">
-        <is>
-          <t xml:space="preserve">PON2140PC, 565-568</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B80"/>
+      <c s="11" t="str" r="C80"/>
+      <c s="11" t="str" r="D80"/>
+      <c s="11" t="str" r="E80"/>
+      <c s="11" t="str" r="F80"/>
       <c s="7" r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
@@ -14305,7 +14293,7 @@
       <c s="8" t="str" r="K80"/>
       <c s="8" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">265</t>
+          <t xml:space="preserve">260</t>
         </is>
       </c>
       <c s="8" t="str" r="M80"/>
@@ -14339,13 +14327,13 @@
       <c s="9" t="str" r="AH80"/>
     </row>
     <row r="81" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B81"/>
-      <c s="11" t="str" r="C81"/>
-      <c s="11" t="str" r="D81"/>
-      <c s="11" t="str" r="E81"/>
-      <c s="11" t="str" r="F81"/>
+      <c s="10" t="str" r="B81"/>
+      <c s="10" t="str" r="C81"/>
+      <c s="10" t="str" r="D81"/>
+      <c s="10" t="str" r="E81"/>
+      <c s="10" t="str" r="F81"/>
       <c s="7" r="G81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
@@ -14361,7 +14349,7 @@
       <c s="8" t="str" r="K81"/>
       <c s="8" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">275</t>
+          <t xml:space="preserve">270</t>
         </is>
       </c>
       <c s="8" t="str" r="M81"/>
@@ -14395,13 +14383,25 @@
       <c s="9" t="str" r="AH81"/>
     </row>
     <row r="82" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B82"/>
-      <c s="11" t="str" r="C82"/>
-      <c s="11" t="str" r="D82"/>
-      <c s="11" t="str" r="E82"/>
-      <c s="11" t="str" r="F82"/>
+      <c s="6" t="str" r="B82"/>
+      <c s="7" r="C82">
+        <v>137261102</v>
+      </c>
+      <c s="8" t="inlineStr" r="D82">
+        <is>
+          <t xml:space="preserve">F 275-2 MOSS LN FST</t>
+        </is>
+      </c>
+      <c s="7" r="E82">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F82">
+        <is>
+          <t xml:space="preserve">PON2140PC, 657-660</t>
+        </is>
+      </c>
       <c s="7" r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
@@ -14417,13 +14417,13 @@
       <c s="8" t="str" r="K82"/>
       <c s="8" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">260</t>
+          <t xml:space="preserve">275</t>
         </is>
       </c>
       <c s="8" t="str" r="M82"/>
       <c s="8" t="inlineStr" r="N82">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O82"/>
@@ -14457,7 +14457,7 @@
       <c s="10" t="str" r="E83"/>
       <c s="10" t="str" r="F83"/>
       <c s="7" r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
@@ -14473,13 +14473,13 @@
       <c s="8" t="str" r="K83"/>
       <c s="8" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">270</t>
+          <t xml:space="preserve">265</t>
         </is>
       </c>
       <c s="8" t="str" r="M83"/>
       <c s="8" t="inlineStr" r="N83">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O83"/>
@@ -15049,11 +15049,11 @@
     <row r="93" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B93"/>
       <c s="7" r="C93">
-        <v>137261114</v>
+        <v>137258041</v>
       </c>
       <c s="8" t="inlineStr" r="D93">
         <is>
-          <t xml:space="preserve">F 295-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 295-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E93">
@@ -15061,7 +15061,7 @@
       </c>
       <c s="8" t="inlineStr" r="F93">
         <is>
-          <t xml:space="preserve">PON2140PC, 653-656</t>
+          <t xml:space="preserve">PON2140PC, 561-564</t>
         </is>
       </c>
       <c s="7" r="G93">
@@ -15081,13 +15081,13 @@
       <c s="8" t="str" r="K93"/>
       <c s="8" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">295</t>
+          <t xml:space="preserve">285</t>
         </is>
       </c>
       <c s="8" t="str" r="M93"/>
       <c s="8" t="inlineStr" r="N93">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O93"/>
@@ -15115,11 +15115,11 @@
       <c s="9" t="str" r="AH93"/>
     </row>
     <row r="94" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B94"/>
-      <c s="10" t="str" r="C94"/>
-      <c s="10" t="str" r="D94"/>
-      <c s="10" t="str" r="E94"/>
-      <c s="10" t="str" r="F94"/>
+      <c s="11" t="str" r="B94"/>
+      <c s="11" t="str" r="C94"/>
+      <c s="11" t="str" r="D94"/>
+      <c s="11" t="str" r="E94"/>
+      <c s="11" t="str" r="F94"/>
       <c s="7" r="G94">
         <v>2</v>
       </c>
@@ -15137,13 +15137,13 @@
       <c s="8" t="str" r="K94"/>
       <c s="8" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">285</t>
+          <t xml:space="preserve">295</t>
         </is>
       </c>
       <c s="8" t="str" r="M94"/>
       <c s="8" t="inlineStr" r="N94">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O94"/>
@@ -15171,25 +15171,13 @@
       <c s="9" t="str" r="AH94"/>
     </row>
     <row r="95" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B95"/>
-      <c s="7" r="C95">
-        <v>137258041</v>
-      </c>
-      <c s="8" t="inlineStr" r="D95">
-        <is>
-          <t xml:space="preserve">F 295-2 GARDEN AVE FST</t>
-        </is>
-      </c>
-      <c s="7" r="E95">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F95">
-        <is>
-          <t xml:space="preserve">PON2140PC, 561-564</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B95"/>
+      <c s="11" t="str" r="C95"/>
+      <c s="11" t="str" r="D95"/>
+      <c s="11" t="str" r="E95"/>
+      <c s="11" t="str" r="F95"/>
       <c s="7" r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
@@ -15205,7 +15193,7 @@
       <c s="8" t="str" r="K95"/>
       <c s="8" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">285</t>
+          <t xml:space="preserve">280</t>
         </is>
       </c>
       <c s="8" t="str" r="M95"/>
@@ -15239,13 +15227,13 @@
       <c s="9" t="str" r="AH95"/>
     </row>
     <row r="96" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B96"/>
-      <c s="11" t="str" r="C96"/>
-      <c s="11" t="str" r="D96"/>
-      <c s="11" t="str" r="E96"/>
-      <c s="11" t="str" r="F96"/>
+      <c s="10" t="str" r="B96"/>
+      <c s="10" t="str" r="C96"/>
+      <c s="10" t="str" r="D96"/>
+      <c s="10" t="str" r="E96"/>
+      <c s="10" t="str" r="F96"/>
       <c s="7" r="G96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
@@ -15261,7 +15249,7 @@
       <c s="8" t="str" r="K96"/>
       <c s="8" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">295</t>
+          <t xml:space="preserve">290</t>
         </is>
       </c>
       <c s="8" t="str" r="M96"/>
@@ -15295,13 +15283,25 @@
       <c s="9" t="str" r="AH96"/>
     </row>
     <row r="97" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B97"/>
-      <c s="11" t="str" r="C97"/>
-      <c s="11" t="str" r="D97"/>
-      <c s="11" t="str" r="E97"/>
-      <c s="11" t="str" r="F97"/>
+      <c s="6" t="str" r="B97"/>
+      <c s="7" r="C97">
+        <v>137261114</v>
+      </c>
+      <c s="8" t="inlineStr" r="D97">
+        <is>
+          <t xml:space="preserve">F 295-2 MOSS LN FST</t>
+        </is>
+      </c>
+      <c s="7" r="E97">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F97">
+        <is>
+          <t xml:space="preserve">PON2140PC, 653-656</t>
+        </is>
+      </c>
       <c s="7" r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
@@ -15317,13 +15317,13 @@
       <c s="8" t="str" r="K97"/>
       <c s="8" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">280</t>
+          <t xml:space="preserve">295</t>
         </is>
       </c>
       <c s="8" t="str" r="M97"/>
       <c s="8" t="inlineStr" r="N97">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O97"/>
@@ -15357,7 +15357,7 @@
       <c s="10" t="str" r="E98"/>
       <c s="10" t="str" r="F98"/>
       <c s="7" r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
@@ -15373,13 +15373,13 @@
       <c s="8" t="str" r="K98"/>
       <c s="8" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">290</t>
+          <t xml:space="preserve">285</t>
         </is>
       </c>
       <c s="8" t="str" r="M98"/>
       <c s="8" t="inlineStr" r="N98">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O98"/>
@@ -15413,7 +15413,7 @@
       </c>
       <c s="8" t="inlineStr" r="D99">
         <is>
-          <t xml:space="preserve">F 30-1 BERG CT FST</t>
+          <t xml:space="preserve">F 30-2 BERG CT FST</t>
         </is>
       </c>
       <c s="7" r="E99">
@@ -15961,19 +15961,19 @@
     <row r="108" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B108"/>
       <c s="7" r="C108">
-        <v>137258051</v>
+        <v>137261238</v>
       </c>
       <c s="8" t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">F 315-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 315-1 JASMINE DR FST</t>
         </is>
       </c>
       <c s="7" r="E108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c s="8" t="inlineStr" r="F108">
         <is>
-          <t xml:space="preserve">PON2140PC, 557-560</t>
+          <t xml:space="preserve">PON2140PC, 601-608</t>
         </is>
       </c>
       <c s="7" r="G108">
@@ -15993,13 +15993,13 @@
       <c s="8" t="str" r="K108"/>
       <c s="8" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">305</t>
+          <t xml:space="preserve">315</t>
         </is>
       </c>
       <c s="8" t="str" r="M108"/>
       <c s="8" t="inlineStr" r="N108">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O108"/>
@@ -16049,13 +16049,13 @@
       <c s="8" t="str" r="K109"/>
       <c s="8" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">315</t>
+          <t xml:space="preserve">320</t>
         </is>
       </c>
       <c s="8" t="str" r="M109"/>
       <c s="8" t="inlineStr" r="N109">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O109"/>
@@ -16083,11 +16083,11 @@
       <c s="9" t="str" r="AH109"/>
     </row>
     <row r="110" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B110"/>
-      <c s="11" t="str" r="C110"/>
-      <c s="11" t="str" r="D110"/>
-      <c s="11" t="str" r="E110"/>
-      <c s="11" t="str" r="F110"/>
+      <c s="10" t="str" r="B110"/>
+      <c s="10" t="str" r="C110"/>
+      <c s="10" t="str" r="D110"/>
+      <c s="10" t="str" r="E110"/>
+      <c s="10" t="str" r="F110"/>
       <c s="7" r="G110">
         <v>3</v>
       </c>
@@ -16105,13 +16105,13 @@
       <c s="8" t="str" r="K110"/>
       <c s="8" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">300</t>
+          <t xml:space="preserve">295</t>
         </is>
       </c>
       <c s="8" t="str" r="M110"/>
       <c s="8" t="inlineStr" r="N110">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O110"/>
@@ -16139,13 +16139,25 @@
       <c s="9" t="str" r="AH110"/>
     </row>
     <row r="111" ht="21.15" customHeight="1">
-      <c s="10" t="str" r="B111"/>
-      <c s="10" t="str" r="C111"/>
-      <c s="10" t="str" r="D111"/>
-      <c s="10" t="str" r="E111"/>
-      <c s="10" t="str" r="F111"/>
+      <c s="6" t="str" r="B111"/>
+      <c s="7" r="C111">
+        <v>137261117</v>
+      </c>
+      <c s="8" t="inlineStr" r="D111">
+        <is>
+          <t xml:space="preserve">F 315-1 MOSS LN FST</t>
+        </is>
+      </c>
+      <c s="7" r="E111">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F111">
+        <is>
+          <t xml:space="preserve">PON2140PC, 649-652</t>
+        </is>
+      </c>
       <c s="7" r="G111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H111">
         <is>
@@ -16161,13 +16173,13 @@
       <c s="8" t="str" r="K111"/>
       <c s="8" t="inlineStr" r="L111">
         <is>
-          <t xml:space="preserve">310</t>
+          <t xml:space="preserve">305</t>
         </is>
       </c>
       <c s="8" t="str" r="M111"/>
       <c s="8" t="inlineStr" r="N111">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O111"/>
@@ -16195,25 +16207,13 @@
       <c s="9" t="str" r="AH111"/>
     </row>
     <row r="112" ht="21.1" customHeight="1">
-      <c s="6" t="str" r="B112"/>
-      <c s="7" r="C112">
-        <v>137261238</v>
-      </c>
-      <c s="8" t="inlineStr" r="D112">
-        <is>
-          <t xml:space="preserve">F 315-1 JASMINE DR FST</t>
-        </is>
-      </c>
-      <c s="7" r="E112">
-        <v>8</v>
-      </c>
-      <c s="8" t="inlineStr" r="F112">
-        <is>
-          <t xml:space="preserve">PON2140PC, 601-608</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B112"/>
+      <c s="11" t="str" r="C112"/>
+      <c s="11" t="str" r="D112"/>
+      <c s="11" t="str" r="E112"/>
+      <c s="11" t="str" r="F112"/>
       <c s="7" r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H112">
         <is>
@@ -16235,7 +16235,7 @@
       <c s="8" t="str" r="M112"/>
       <c s="8" t="inlineStr" r="N112">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O112"/>
@@ -16269,7 +16269,7 @@
       <c s="11" t="str" r="E113"/>
       <c s="11" t="str" r="F113"/>
       <c s="7" r="G113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H113">
         <is>
@@ -16285,13 +16285,13 @@
       <c s="8" t="str" r="K113"/>
       <c s="8" t="inlineStr" r="L113">
         <is>
-          <t xml:space="preserve">320</t>
+          <t xml:space="preserve">310</t>
         </is>
       </c>
       <c s="8" t="str" r="M113"/>
       <c s="8" t="inlineStr" r="N113">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O113"/>
@@ -16325,7 +16325,7 @@
       <c s="10" t="str" r="E114"/>
       <c s="10" t="str" r="F114"/>
       <c s="7" r="G114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H114">
         <is>
@@ -16341,13 +16341,13 @@
       <c s="8" t="str" r="K114"/>
       <c s="8" t="inlineStr" r="L114">
         <is>
-          <t xml:space="preserve">295</t>
+          <t xml:space="preserve">320</t>
         </is>
       </c>
       <c s="8" t="str" r="M114"/>
       <c s="8" t="inlineStr" r="N114">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O114"/>
@@ -16377,11 +16377,11 @@
     <row r="115" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B115"/>
       <c s="7" r="C115">
-        <v>137261117</v>
+        <v>137258051</v>
       </c>
       <c s="8" t="inlineStr" r="D115">
         <is>
-          <t xml:space="preserve">F 315-1 MOSS LN FST</t>
+          <t xml:space="preserve">F 315-2 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E115">
@@ -16389,7 +16389,7 @@
       </c>
       <c s="8" t="inlineStr" r="F115">
         <is>
-          <t xml:space="preserve">PON2140PC, 649-652</t>
+          <t xml:space="preserve">PON2140PC, 557-560</t>
         </is>
       </c>
       <c s="7" r="G115">
@@ -16415,7 +16415,7 @@
       <c s="8" t="str" r="M115"/>
       <c s="8" t="inlineStr" r="N115">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O115"/>
@@ -16471,7 +16471,7 @@
       <c s="8" t="str" r="M116"/>
       <c s="8" t="inlineStr" r="N116">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O116"/>
@@ -16521,13 +16521,13 @@
       <c s="8" t="str" r="K117"/>
       <c s="8" t="inlineStr" r="L117">
         <is>
-          <t xml:space="preserve">310</t>
+          <t xml:space="preserve">300</t>
         </is>
       </c>
       <c s="8" t="str" r="M117"/>
       <c s="8" t="inlineStr" r="N117">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O117"/>
@@ -16577,13 +16577,13 @@
       <c s="8" t="str" r="K118"/>
       <c s="8" t="inlineStr" r="L118">
         <is>
-          <t xml:space="preserve">320</t>
+          <t xml:space="preserve">310</t>
         </is>
       </c>
       <c s="8" t="str" r="M118"/>
       <c s="8" t="inlineStr" r="N118">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O118"/>
@@ -18045,7 +18045,7 @@
       </c>
       <c s="8" t="inlineStr" r="D143">
         <is>
-          <t xml:space="preserve">F 345-1 JASMINE DR FST</t>
+          <t xml:space="preserve">F 345-2 JASMINE DR FST</t>
         </is>
       </c>
       <c s="7" r="E143">
@@ -19289,11 +19289,11 @@
     <row r="164" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B164"/>
       <c s="7" r="C164">
-        <v>137257309</v>
+        <v>137261080</v>
       </c>
       <c s="8" t="inlineStr" r="D164">
         <is>
-          <t xml:space="preserve">F 360-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 364-1 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E164">
@@ -19301,7 +19301,7 @@
       </c>
       <c s="8" t="inlineStr" r="F164">
         <is>
-          <t xml:space="preserve">PON2140PC, 741-744</t>
+          <t xml:space="preserve">PON2140PC, 673-676</t>
         </is>
       </c>
       <c s="7" r="G164">
@@ -19327,7 +19327,7 @@
       <c s="8" t="str" r="M164"/>
       <c s="8" t="inlineStr" r="N164">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O164"/>
@@ -19355,11 +19355,11 @@
       <c s="9" t="str" r="AH164"/>
     </row>
     <row r="165" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B165"/>
-      <c s="10" t="str" r="C165"/>
-      <c s="10" t="str" r="D165"/>
-      <c s="10" t="str" r="E165"/>
-      <c s="10" t="str" r="F165"/>
+      <c s="11" t="str" r="B165"/>
+      <c s="11" t="str" r="C165"/>
+      <c s="11" t="str" r="D165"/>
+      <c s="11" t="str" r="E165"/>
+      <c s="11" t="str" r="F165"/>
       <c s="7" r="G165">
         <v>2</v>
       </c>
@@ -19377,13 +19377,13 @@
       <c s="8" t="str" r="K165"/>
       <c s="8" t="inlineStr" r="L165">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">364</t>
         </is>
       </c>
       <c s="8" t="str" r="M165"/>
       <c s="8" t="inlineStr" r="N165">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O165"/>
@@ -19411,25 +19411,13 @@
       <c s="9" t="str" r="AH165"/>
     </row>
     <row r="166" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B166"/>
-      <c s="7" r="C166">
-        <v>137261080</v>
-      </c>
-      <c s="8" t="inlineStr" r="D166">
-        <is>
-          <t xml:space="preserve">F 364-1 AZALEA DR FST</t>
-        </is>
-      </c>
-      <c s="7" r="E166">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F166">
-        <is>
-          <t xml:space="preserve">PON2140PC, 673-676</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B166"/>
+      <c s="11" t="str" r="C166"/>
+      <c s="11" t="str" r="D166"/>
+      <c s="11" t="str" r="E166"/>
+      <c s="11" t="str" r="F166"/>
       <c s="7" r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H166">
         <is>
@@ -19445,7 +19433,7 @@
       <c s="8" t="str" r="K166"/>
       <c s="8" t="inlineStr" r="L166">
         <is>
-          <t xml:space="preserve">360</t>
+          <t xml:space="preserve">355</t>
         </is>
       </c>
       <c s="8" t="str" r="M166"/>
@@ -19479,13 +19467,13 @@
       <c s="9" t="str" r="AH166"/>
     </row>
     <row r="167" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B167"/>
-      <c s="11" t="str" r="C167"/>
-      <c s="11" t="str" r="D167"/>
-      <c s="11" t="str" r="E167"/>
-      <c s="11" t="str" r="F167"/>
+      <c s="10" t="str" r="B167"/>
+      <c s="10" t="str" r="C167"/>
+      <c s="10" t="str" r="D167"/>
+      <c s="10" t="str" r="E167"/>
+      <c s="10" t="str" r="F167"/>
       <c s="7" r="G167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H167">
         <is>
@@ -19501,7 +19489,7 @@
       <c s="8" t="str" r="K167"/>
       <c s="8" t="inlineStr" r="L167">
         <is>
-          <t xml:space="preserve">364</t>
+          <t xml:space="preserve">345</t>
         </is>
       </c>
       <c s="8" t="str" r="M167"/>
@@ -19535,13 +19523,25 @@
       <c s="9" t="str" r="AH167"/>
     </row>
     <row r="168" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B168"/>
-      <c s="11" t="str" r="C168"/>
-      <c s="11" t="str" r="D168"/>
-      <c s="11" t="str" r="E168"/>
-      <c s="11" t="str" r="F168"/>
+      <c s="6" t="str" r="B168"/>
+      <c s="7" r="C168">
+        <v>137261221</v>
+      </c>
+      <c s="8" t="inlineStr" r="D168">
+        <is>
+          <t xml:space="preserve">F 365-2 JASMINE DR FST</t>
+        </is>
+      </c>
+      <c s="7" r="E168">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F168">
+        <is>
+          <t xml:space="preserve">PON2140PC, 617-620</t>
+        </is>
+      </c>
       <c s="7" r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H168">
         <is>
@@ -19557,13 +19557,13 @@
       <c s="8" t="str" r="K168"/>
       <c s="8" t="inlineStr" r="L168">
         <is>
-          <t xml:space="preserve">355</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M168"/>
       <c s="8" t="inlineStr" r="N168">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O168"/>
@@ -19591,13 +19591,13 @@
       <c s="9" t="str" r="AH168"/>
     </row>
     <row r="169" ht="21.15" customHeight="1">
-      <c s="10" t="str" r="B169"/>
-      <c s="10" t="str" r="C169"/>
-      <c s="10" t="str" r="D169"/>
-      <c s="10" t="str" r="E169"/>
-      <c s="10" t="str" r="F169"/>
+      <c s="11" t="str" r="B169"/>
+      <c s="11" t="str" r="C169"/>
+      <c s="11" t="str" r="D169"/>
+      <c s="11" t="str" r="E169"/>
+      <c s="11" t="str" r="F169"/>
       <c s="7" r="G169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H169">
         <is>
@@ -19613,13 +19613,13 @@
       <c s="8" t="str" r="K169"/>
       <c s="8" t="inlineStr" r="L169">
         <is>
-          <t xml:space="preserve">345</t>
+          <t xml:space="preserve">375</t>
         </is>
       </c>
       <c s="8" t="str" r="M169"/>
       <c s="8" t="inlineStr" r="N169">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">JASMINE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O169"/>
@@ -19647,25 +19647,13 @@
       <c s="9" t="str" r="AH169"/>
     </row>
     <row r="170" ht="21.1" customHeight="1">
-      <c s="6" t="str" r="B170"/>
-      <c s="7" r="C170">
-        <v>137261221</v>
-      </c>
-      <c s="8" t="inlineStr" r="D170">
-        <is>
-          <t xml:space="preserve">F 365-1 JASMINE DR FST</t>
-        </is>
-      </c>
-      <c s="7" r="E170">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F170">
-        <is>
-          <t xml:space="preserve">PON2140PC, 617-620</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B170"/>
+      <c s="11" t="str" r="C170"/>
+      <c s="11" t="str" r="D170"/>
+      <c s="11" t="str" r="E170"/>
+      <c s="11" t="str" r="F170"/>
       <c s="7" r="G170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H170">
         <is>
@@ -19681,7 +19669,7 @@
       <c s="8" t="str" r="K170"/>
       <c s="8" t="inlineStr" r="L170">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M170"/>
@@ -19715,13 +19703,13 @@
       <c s="9" t="str" r="AH170"/>
     </row>
     <row r="171" ht="21.15" customHeight="1">
-      <c s="11" t="str" r="B171"/>
-      <c s="11" t="str" r="C171"/>
-      <c s="11" t="str" r="D171"/>
-      <c s="11" t="str" r="E171"/>
-      <c s="11" t="str" r="F171"/>
+      <c s="10" t="str" r="B171"/>
+      <c s="10" t="str" r="C171"/>
+      <c s="10" t="str" r="D171"/>
+      <c s="10" t="str" r="E171"/>
+      <c s="10" t="str" r="F171"/>
       <c s="7" r="G171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H171">
         <is>
@@ -19737,7 +19725,7 @@
       <c s="8" t="str" r="K171"/>
       <c s="8" t="inlineStr" r="L171">
         <is>
-          <t xml:space="preserve">375</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M171"/>
@@ -19771,13 +19759,25 @@
       <c s="9" t="str" r="AH171"/>
     </row>
     <row r="172" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B172"/>
-      <c s="11" t="str" r="C172"/>
-      <c s="11" t="str" r="D172"/>
-      <c s="11" t="str" r="E172"/>
-      <c s="11" t="str" r="F172"/>
+      <c s="6" t="str" r="B172"/>
+      <c s="7" r="C172">
+        <v>137261134</v>
+      </c>
+      <c s="8" t="inlineStr" r="D172">
+        <is>
+          <t xml:space="preserve">F 365-2 MOSS LN FST</t>
+        </is>
+      </c>
+      <c s="7" r="E172">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F172">
+        <is>
+          <t xml:space="preserve">PON2140PC, 637-640</t>
+        </is>
+      </c>
       <c s="7" r="G172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H172">
         <is>
@@ -19793,13 +19793,13 @@
       <c s="8" t="str" r="K172"/>
       <c s="8" t="inlineStr" r="L172">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M172"/>
       <c s="8" t="inlineStr" r="N172">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O172"/>
@@ -19827,13 +19827,13 @@
       <c s="9" t="str" r="AH172"/>
     </row>
     <row r="173" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B173"/>
-      <c s="10" t="str" r="C173"/>
-      <c s="10" t="str" r="D173"/>
-      <c s="10" t="str" r="E173"/>
-      <c s="10" t="str" r="F173"/>
+      <c s="11" t="str" r="B173"/>
+      <c s="11" t="str" r="C173"/>
+      <c s="11" t="str" r="D173"/>
+      <c s="11" t="str" r="E173"/>
+      <c s="11" t="str" r="F173"/>
       <c s="7" r="G173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H173">
         <is>
@@ -19849,13 +19849,13 @@
       <c s="8" t="str" r="K173"/>
       <c s="8" t="inlineStr" r="L173">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">565</t>
         </is>
       </c>
       <c s="8" t="str" r="M173"/>
       <c s="8" t="inlineStr" r="N173">
         <is>
-          <t xml:space="preserve">JASMINE DR</t>
+          <t xml:space="preserve">LOTUS DR N</t>
         </is>
       </c>
       <c s="8" t="str" r="O173"/>
@@ -19883,25 +19883,13 @@
       <c s="9" t="str" r="AH173"/>
     </row>
     <row r="174" ht="21.15" customHeight="1">
-      <c s="6" t="str" r="B174"/>
-      <c s="7" r="C174">
-        <v>137261134</v>
-      </c>
-      <c s="8" t="inlineStr" r="D174">
-        <is>
-          <t xml:space="preserve">F 365-2 MOSS LN FST</t>
-        </is>
-      </c>
-      <c s="7" r="E174">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F174">
-        <is>
-          <t xml:space="preserve">PON2140PC, 637-640</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B174"/>
+      <c s="11" t="str" r="C174"/>
+      <c s="11" t="str" r="D174"/>
+      <c s="11" t="str" r="E174"/>
+      <c s="11" t="str" r="F174"/>
       <c s="7" r="G174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H174">
         <is>
@@ -19917,7 +19905,7 @@
       <c s="8" t="str" r="K174"/>
       <c s="8" t="inlineStr" r="L174">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M174"/>
@@ -19951,13 +19939,13 @@
       <c s="9" t="str" r="AH174"/>
     </row>
     <row r="175" ht="21.1" customHeight="1">
-      <c s="11" t="str" r="B175"/>
-      <c s="11" t="str" r="C175"/>
-      <c s="11" t="str" r="D175"/>
-      <c s="11" t="str" r="E175"/>
-      <c s="11" t="str" r="F175"/>
+      <c s="10" t="str" r="B175"/>
+      <c s="10" t="str" r="C175"/>
+      <c s="10" t="str" r="D175"/>
+      <c s="10" t="str" r="E175"/>
+      <c s="10" t="str" r="F175"/>
       <c s="7" r="G175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H175">
         <is>
@@ -19973,13 +19961,13 @@
       <c s="8" t="str" r="K175"/>
       <c s="8" t="inlineStr" r="L175">
         <is>
-          <t xml:space="preserve">565</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M175"/>
       <c s="8" t="inlineStr" r="N175">
         <is>
-          <t xml:space="preserve">LOTUS DR N</t>
+          <t xml:space="preserve">MOSS LN</t>
         </is>
       </c>
       <c s="8" t="str" r="O175"/>
@@ -20007,13 +19995,25 @@
       <c s="9" t="str" r="AH175"/>
     </row>
     <row r="176" ht="21.15" customHeight="1">
-      <c s="11" t="str" r="B176"/>
-      <c s="11" t="str" r="C176"/>
-      <c s="11" t="str" r="D176"/>
-      <c s="11" t="str" r="E176"/>
-      <c s="11" t="str" r="F176"/>
+      <c s="6" t="str" r="B176"/>
+      <c s="7" r="C176">
+        <v>137257309</v>
+      </c>
+      <c s="8" t="inlineStr" r="D176">
+        <is>
+          <t xml:space="preserve">F 370-1 BEAU RIVAGE DR FST</t>
+        </is>
+      </c>
+      <c s="7" r="E176">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F176">
+        <is>
+          <t xml:space="preserve">PON2140PC, 741-744</t>
+        </is>
+      </c>
       <c s="7" r="G176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H176">
         <is>
@@ -20029,13 +20029,13 @@
       <c s="8" t="str" r="K176"/>
       <c s="8" t="inlineStr" r="L176">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">360</t>
         </is>
       </c>
       <c s="8" t="str" r="M176"/>
       <c s="8" t="inlineStr" r="N176">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O176"/>
@@ -20069,7 +20069,7 @@
       <c s="10" t="str" r="E177"/>
       <c s="10" t="str" r="F177"/>
       <c s="7" r="G177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H177">
         <is>
@@ -20085,13 +20085,13 @@
       <c s="8" t="str" r="K177"/>
       <c s="8" t="inlineStr" r="L177">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M177"/>
       <c s="8" t="inlineStr" r="N177">
         <is>
-          <t xml:space="preserve">MOSS LN</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O177"/>
@@ -20121,19 +20121,19 @@
     <row r="178" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B178"/>
       <c s="7" r="C178">
-        <v>137257316</v>
+        <v>137258108</v>
       </c>
       <c s="8" t="inlineStr" r="D178">
         <is>
-          <t xml:space="preserve">F 375-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 375-1 LOTUS DR S FST</t>
         </is>
       </c>
       <c s="7" r="E178">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c s="8" t="inlineStr" r="F178">
         <is>
-          <t xml:space="preserve">PON2140PC, 729-732</t>
+          <t xml:space="preserve">PON2140PC, 525-532</t>
         </is>
       </c>
       <c s="7" r="G178">
@@ -20159,7 +20159,7 @@
       <c s="8" t="str" r="M178"/>
       <c s="8" t="inlineStr" r="N178">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O178"/>
@@ -20187,11 +20187,11 @@
       <c s="9" t="str" r="AH178"/>
     </row>
     <row r="179" ht="21.15" customHeight="1">
-      <c s="10" t="str" r="B179"/>
-      <c s="10" t="str" r="C179"/>
-      <c s="10" t="str" r="D179"/>
-      <c s="10" t="str" r="E179"/>
-      <c s="10" t="str" r="F179"/>
+      <c s="11" t="str" r="B179"/>
+      <c s="11" t="str" r="C179"/>
+      <c s="11" t="str" r="D179"/>
+      <c s="11" t="str" r="E179"/>
+      <c s="11" t="str" r="F179"/>
       <c s="7" r="G179">
         <v>2</v>
       </c>
@@ -20209,13 +20209,13 @@
       <c s="8" t="str" r="K179"/>
       <c s="8" t="inlineStr" r="L179">
         <is>
-          <t xml:space="preserve">385</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M179"/>
       <c s="8" t="inlineStr" r="N179">
         <is>
-          <t xml:space="preserve">BEAU RIVAGE DR</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O179"/>
@@ -20243,25 +20243,13 @@
       <c s="9" t="str" r="AH179"/>
     </row>
     <row r="180" ht="21.1" customHeight="1">
-      <c s="6" t="str" r="B180"/>
-      <c s="7" r="C180">
-        <v>137258141</v>
-      </c>
-      <c s="8" t="inlineStr" r="D180">
-        <is>
-          <t xml:space="preserve">F 375-1 GARDEN AVE FST</t>
-        </is>
-      </c>
-      <c s="7" r="E180">
-        <v>4</v>
-      </c>
-      <c s="8" t="inlineStr" r="F180">
-        <is>
-          <t xml:space="preserve">PON2140PC, 509-512</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B180"/>
+      <c s="11" t="str" r="C180"/>
+      <c s="11" t="str" r="D180"/>
+      <c s="11" t="str" r="E180"/>
+      <c s="11" t="str" r="F180"/>
       <c s="7" r="G180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H180">
         <is>
@@ -20277,13 +20265,13 @@
       <c s="8" t="str" r="K180"/>
       <c s="8" t="inlineStr" r="L180">
         <is>
-          <t xml:space="preserve">375</t>
+          <t xml:space="preserve">370</t>
         </is>
       </c>
       <c s="8" t="str" r="M180"/>
       <c s="8" t="inlineStr" r="N180">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O180"/>
@@ -20311,13 +20299,13 @@
       <c s="9" t="str" r="AH180"/>
     </row>
     <row r="181" ht="21.15" customHeight="1">
-      <c s="11" t="str" r="B181"/>
-      <c s="11" t="str" r="C181"/>
-      <c s="11" t="str" r="D181"/>
-      <c s="11" t="str" r="E181"/>
-      <c s="11" t="str" r="F181"/>
+      <c s="10" t="str" r="B181"/>
+      <c s="10" t="str" r="C181"/>
+      <c s="10" t="str" r="D181"/>
+      <c s="10" t="str" r="E181"/>
+      <c s="10" t="str" r="F181"/>
       <c s="7" r="G181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="H181">
         <is>
@@ -20333,13 +20321,13 @@
       <c s="8" t="str" r="K181"/>
       <c s="8" t="inlineStr" r="L181">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">360</t>
         </is>
       </c>
       <c s="8" t="str" r="M181"/>
       <c s="8" t="inlineStr" r="N181">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O181"/>
@@ -20367,13 +20355,25 @@
       <c s="9" t="str" r="AH181"/>
     </row>
     <row r="182" ht="21.1" customHeight="1">
-      <c s="10" t="str" r="B182"/>
-      <c s="10" t="str" r="C182"/>
-      <c s="10" t="str" r="D182"/>
-      <c s="10" t="str" r="E182"/>
-      <c s="10" t="str" r="F182"/>
+      <c s="6" t="str" r="B182"/>
+      <c s="7" r="C182">
+        <v>137257316</v>
+      </c>
+      <c s="8" t="inlineStr" r="D182">
+        <is>
+          <t xml:space="preserve">F 375-2 BEAU RIVAGE DR FST</t>
+        </is>
+      </c>
+      <c s="7" r="E182">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F182">
+        <is>
+          <t xml:space="preserve">PON2140PC, 729-732</t>
+        </is>
+      </c>
       <c s="7" r="G182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H182">
         <is>
@@ -20389,13 +20389,13 @@
       <c s="8" t="str" r="K182"/>
       <c s="8" t="inlineStr" r="L182">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">375</t>
         </is>
       </c>
       <c s="8" t="str" r="M182"/>
       <c s="8" t="inlineStr" r="N182">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O182"/>
@@ -20423,25 +20423,13 @@
       <c s="9" t="str" r="AH182"/>
     </row>
     <row r="183" ht="21.1" customHeight="1">
-      <c s="6" t="str" r="B183"/>
-      <c s="7" r="C183">
-        <v>137258108</v>
-      </c>
-      <c s="8" t="inlineStr" r="D183">
-        <is>
-          <t xml:space="preserve">F 375-1 LOTUS DR S FST</t>
-        </is>
-      </c>
-      <c s="7" r="E183">
-        <v>8</v>
-      </c>
-      <c s="8" t="inlineStr" r="F183">
-        <is>
-          <t xml:space="preserve">PON2140PC, 525-532</t>
-        </is>
-      </c>
+      <c s="10" t="str" r="B183"/>
+      <c s="10" t="str" r="C183"/>
+      <c s="10" t="str" r="D183"/>
+      <c s="10" t="str" r="E183"/>
+      <c s="10" t="str" r="F183"/>
       <c s="7" r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H183">
         <is>
@@ -20457,13 +20445,13 @@
       <c s="8" t="str" r="K183"/>
       <c s="8" t="inlineStr" r="L183">
         <is>
-          <t xml:space="preserve">375</t>
+          <t xml:space="preserve">385</t>
         </is>
       </c>
       <c s="8" t="str" r="M183"/>
       <c s="8" t="inlineStr" r="N183">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">BEAU RIVAGE DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O183"/>
@@ -20491,13 +20479,25 @@
       <c s="9" t="str" r="AH183"/>
     </row>
     <row r="184" ht="21.15" customHeight="1">
-      <c s="11" t="str" r="B184"/>
-      <c s="11" t="str" r="C184"/>
-      <c s="11" t="str" r="D184"/>
-      <c s="11" t="str" r="E184"/>
-      <c s="11" t="str" r="F184"/>
+      <c s="6" t="str" r="B184"/>
+      <c s="7" r="C184">
+        <v>137258141</v>
+      </c>
+      <c s="8" t="inlineStr" r="D184">
+        <is>
+          <t xml:space="preserve">F 375-2 GARDEN AVE FST</t>
+        </is>
+      </c>
+      <c s="7" r="E184">
+        <v>4</v>
+      </c>
+      <c s="8" t="inlineStr" r="F184">
+        <is>
+          <t xml:space="preserve">PON2140PC, 509-512</t>
+        </is>
+      </c>
       <c s="7" r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" t="inlineStr" r="H184">
         <is>
@@ -20513,13 +20513,13 @@
       <c s="8" t="str" r="K184"/>
       <c s="8" t="inlineStr" r="L184">
         <is>
-          <t xml:space="preserve">365</t>
+          <t xml:space="preserve">375</t>
         </is>
       </c>
       <c s="8" t="str" r="M184"/>
       <c s="8" t="inlineStr" r="N184">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O184"/>
@@ -20553,7 +20553,7 @@
       <c s="11" t="str" r="E185"/>
       <c s="11" t="str" r="F185"/>
       <c s="7" r="G185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" t="inlineStr" r="H185">
         <is>
@@ -20569,13 +20569,13 @@
       <c s="8" t="str" r="K185"/>
       <c s="8" t="inlineStr" r="L185">
         <is>
-          <t xml:space="preserve">370</t>
+          <t xml:space="preserve">365</t>
         </is>
       </c>
       <c s="8" t="str" r="M185"/>
       <c s="8" t="inlineStr" r="N185">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O185"/>
@@ -20609,7 +20609,7 @@
       <c s="10" t="str" r="E186"/>
       <c s="10" t="str" r="F186"/>
       <c s="7" r="G186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" t="inlineStr" r="H186">
         <is>
@@ -20625,13 +20625,13 @@
       <c s="8" t="str" r="K186"/>
       <c s="8" t="inlineStr" r="L186">
         <is>
-          <t xml:space="preserve">360</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M186"/>
       <c s="8" t="inlineStr" r="N186">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O186"/>
@@ -20665,7 +20665,7 @@
       </c>
       <c s="8" t="inlineStr" r="D187">
         <is>
-          <t xml:space="preserve">F 380-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 380-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E187">
@@ -20901,7 +20901,7 @@
       </c>
       <c s="8" t="inlineStr" r="D191">
         <is>
-          <t xml:space="preserve">F 380-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 380-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E191">
@@ -21201,19 +21201,19 @@
     <row r="196" ht="21.1" customHeight="1">
       <c s="6" t="str" r="B196"/>
       <c s="7" r="C196">
-        <v>137261093</v>
+        <v>137258112</v>
       </c>
       <c s="8" t="inlineStr" r="D196">
         <is>
-          <t xml:space="preserve">F 390-1 AZALEA DR FST</t>
+          <t xml:space="preserve">F 390-1 GARDEN AVE FST</t>
         </is>
       </c>
       <c s="7" r="E196">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c s="8" t="inlineStr" r="F196">
         <is>
-          <t xml:space="preserve">PON2140PC, 665-668</t>
+          <t xml:space="preserve">PON2140PC, 517-524</t>
         </is>
       </c>
       <c s="7" r="G196">
@@ -21239,7 +21239,7 @@
       <c s="8" t="str" r="M196"/>
       <c s="8" t="inlineStr" r="N196">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O196"/>
@@ -21289,13 +21289,13 @@
       <c s="8" t="str" r="K197"/>
       <c s="8" t="inlineStr" r="L197">
         <is>
-          <t xml:space="preserve">385</t>
+          <t xml:space="preserve">400</t>
         </is>
       </c>
       <c s="8" t="str" r="M197"/>
       <c s="8" t="inlineStr" r="N197">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">GARDEN AV</t>
         </is>
       </c>
       <c s="8" t="str" r="O197"/>
@@ -21345,13 +21345,13 @@
       <c s="8" t="str" r="K198"/>
       <c s="8" t="inlineStr" r="L198">
         <is>
-          <t xml:space="preserve">395</t>
+          <t xml:space="preserve">380</t>
         </is>
       </c>
       <c s="8" t="str" r="M198"/>
       <c s="8" t="inlineStr" r="N198">
         <is>
-          <t xml:space="preserve">AZALEA DR</t>
+          <t xml:space="preserve">LOTUS DR S</t>
         </is>
       </c>
       <c s="8" t="str" r="O198"/>
@@ -21381,19 +21381,19 @@
     <row r="199" ht="21.15" customHeight="1">
       <c s="6" t="str" r="B199"/>
       <c s="7" r="C199">
-        <v>137258112</v>
+        <v>137261093</v>
       </c>
       <c s="8" t="inlineStr" r="D199">
         <is>
-          <t xml:space="preserve">F 390-1 GARDEN AVE FST</t>
+          <t xml:space="preserve">F 390-2 AZALEA DR FST</t>
         </is>
       </c>
       <c s="7" r="E199">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c s="8" t="inlineStr" r="F199">
         <is>
-          <t xml:space="preserve">PON2140PC, 517-524</t>
+          <t xml:space="preserve">PON2140PC, 665-668</t>
         </is>
       </c>
       <c s="7" r="G199">
@@ -21419,7 +21419,7 @@
       <c s="8" t="str" r="M199"/>
       <c s="8" t="inlineStr" r="N199">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O199"/>
@@ -21469,13 +21469,13 @@
       <c s="8" t="str" r="K200"/>
       <c s="8" t="inlineStr" r="L200">
         <is>
-          <t xml:space="preserve">400</t>
+          <t xml:space="preserve">385</t>
         </is>
       </c>
       <c s="8" t="str" r="M200"/>
       <c s="8" t="inlineStr" r="N200">
         <is>
-          <t xml:space="preserve">GARDEN AV</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O200"/>
@@ -21525,13 +21525,13 @@
       <c s="8" t="str" r="K201"/>
       <c s="8" t="inlineStr" r="L201">
         <is>
-          <t xml:space="preserve">380</t>
+          <t xml:space="preserve">395</t>
         </is>
       </c>
       <c s="8" t="str" r="M201"/>
       <c s="8" t="inlineStr" r="N201">
         <is>
-          <t xml:space="preserve">LOTUS DR S</t>
+          <t xml:space="preserve">AZALEA DR</t>
         </is>
       </c>
       <c s="8" t="str" r="O201"/>
@@ -21881,7 +21881,7 @@
       </c>
       <c s="8" t="inlineStr" r="D207">
         <is>
-          <t xml:space="preserve">F 400-1 BEAU RIVAGE DR FST</t>
+          <t xml:space="preserve">F 400-2 BEAU RIVAGE DR FST</t>
         </is>
       </c>
       <c s="7" r="E207">
@@ -22253,7 +22253,7 @@
       </c>
       <c s="8" t="inlineStr" r="D213">
         <is>
-          <t xml:space="preserve">F 409-1 VENUS DR FST</t>
+          <t xml:space="preserve">F 409-2 VENUS DR FST</t>
         </is>
       </c>
       <c s="7" r="E213">
@@ -22647,7 +22647,7 @@
       </c>
       <c s="8" t="inlineStr" r="D220">
         <is>
-          <t xml:space="preserve">F 417-1 VENUS DR FST</t>
+          <t xml:space="preserve">F 417-2 VENUS DR FST</t>
         </is>
       </c>
       <c s="7" r="E220">
@@ -24955,7 +24955,7 @@
       </c>
       <c s="8" t="inlineStr" r="D258">
         <is>
-          <t xml:space="preserve">F 550-1 LOTUS DR N FST</t>
+          <t xml:space="preserve">F 550-2 LOTUS DR N FST</t>
         </is>
       </c>
       <c s="7" r="E258">
@@ -25535,7 +25535,7 @@
       </c>
       <c s="8" t="inlineStr" r="D268">
         <is>
-          <t xml:space="preserve">OPP 315-1 HYACINTH LN FST</t>
+          <t xml:space="preserve">OPP 315-2 HYACINTH LN FST</t>
         </is>
       </c>
       <c s="7" r="E268">
@@ -26419,10 +26419,10 @@
     <mergeCell ref="O77:P77"/>
     <mergeCell ref="T77:U77"/>
     <mergeCell ref="V77:Z77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="O78:P78"/>
     <mergeCell ref="T78:U78"/>
@@ -26431,10 +26431,6 @@
     <mergeCell ref="O79:P79"/>
     <mergeCell ref="T79:U79"/>
     <mergeCell ref="V79:Z79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="O80:P80"/>
     <mergeCell ref="T80:U80"/>
@@ -26443,6 +26439,10 @@
     <mergeCell ref="O81:P81"/>
     <mergeCell ref="T81:U81"/>
     <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="O82:P82"/>
     <mergeCell ref="T82:U82"/>
@@ -26499,10 +26499,10 @@
     <mergeCell ref="O92:P92"/>
     <mergeCell ref="T92:U92"/>
     <mergeCell ref="V92:Z92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
     <mergeCell ref="H93:I93"/>
     <mergeCell ref="O93:P93"/>
     <mergeCell ref="T93:U93"/>
@@ -26511,10 +26511,6 @@
     <mergeCell ref="O94:P94"/>
     <mergeCell ref="T94:U94"/>
     <mergeCell ref="V94:Z94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="F95:F98"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="O95:P95"/>
     <mergeCell ref="T95:U95"/>
@@ -26523,6 +26519,10 @@
     <mergeCell ref="O96:P96"/>
     <mergeCell ref="T96:U96"/>
     <mergeCell ref="V96:Z96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
     <mergeCell ref="H97:I97"/>
     <mergeCell ref="O97:P97"/>
     <mergeCell ref="T97:U97"/>
@@ -26583,10 +26583,10 @@
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="T107:U107"/>
     <mergeCell ref="V107:Z107"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
     <mergeCell ref="H108:I108"/>
     <mergeCell ref="O108:P108"/>
     <mergeCell ref="T108:U108"/>
@@ -26599,14 +26599,14 @@
     <mergeCell ref="O110:P110"/>
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:Z110"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="F111:F114"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="O111:P111"/>
     <mergeCell ref="T111:U111"/>
     <mergeCell ref="V111:Z111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
     <mergeCell ref="H112:I112"/>
     <mergeCell ref="O112:P112"/>
     <mergeCell ref="T112:U112"/>
@@ -26871,10 +26871,10 @@
     <mergeCell ref="O163:P163"/>
     <mergeCell ref="T163:U163"/>
     <mergeCell ref="V163:Z163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="O164:P164"/>
     <mergeCell ref="T164:U164"/>
@@ -26883,10 +26883,6 @@
     <mergeCell ref="O165:P165"/>
     <mergeCell ref="T165:U165"/>
     <mergeCell ref="V165:Z165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F169"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="O166:P166"/>
     <mergeCell ref="T166:U166"/>
@@ -26895,6 +26891,10 @@
     <mergeCell ref="O167:P167"/>
     <mergeCell ref="T167:U167"/>
     <mergeCell ref="V167:Z167"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="F168:F171"/>
     <mergeCell ref="H168:I168"/>
     <mergeCell ref="O168:P168"/>
     <mergeCell ref="T168:U168"/>
@@ -26903,10 +26903,6 @@
     <mergeCell ref="O169:P169"/>
     <mergeCell ref="T169:U169"/>
     <mergeCell ref="V169:Z169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F173"/>
     <mergeCell ref="H170:I170"/>
     <mergeCell ref="O170:P170"/>
     <mergeCell ref="T170:U170"/>
@@ -26915,6 +26911,10 @@
     <mergeCell ref="O171:P171"/>
     <mergeCell ref="T171:U171"/>
     <mergeCell ref="V171:Z171"/>
+    <mergeCell ref="C172:C175"/>
+    <mergeCell ref="D172:D175"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="F172:F175"/>
     <mergeCell ref="H172:I172"/>
     <mergeCell ref="O172:P172"/>
     <mergeCell ref="T172:U172"/>
@@ -26923,10 +26923,6 @@
     <mergeCell ref="O173:P173"/>
     <mergeCell ref="T173:U173"/>
     <mergeCell ref="V173:Z173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F177"/>
     <mergeCell ref="H174:I174"/>
     <mergeCell ref="O174:P174"/>
     <mergeCell ref="T174:U174"/>
@@ -26935,6 +26931,10 @@
     <mergeCell ref="O175:P175"/>
     <mergeCell ref="T175:U175"/>
     <mergeCell ref="V175:Z175"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
     <mergeCell ref="H176:I176"/>
     <mergeCell ref="O176:P176"/>
     <mergeCell ref="T176:U176"/>
@@ -26943,10 +26943,10 @@
     <mergeCell ref="O177:P177"/>
     <mergeCell ref="T177:U177"/>
     <mergeCell ref="V177:Z177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
     <mergeCell ref="H178:I178"/>
     <mergeCell ref="O178:P178"/>
     <mergeCell ref="T178:U178"/>
@@ -26955,10 +26955,6 @@
     <mergeCell ref="O179:P179"/>
     <mergeCell ref="T179:U179"/>
     <mergeCell ref="V179:Z179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="F180:F182"/>
     <mergeCell ref="H180:I180"/>
     <mergeCell ref="O180:P180"/>
     <mergeCell ref="T180:U180"/>
@@ -26967,18 +26963,22 @@
     <mergeCell ref="O181:P181"/>
     <mergeCell ref="T181:U181"/>
     <mergeCell ref="V181:Z181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
     <mergeCell ref="H182:I182"/>
     <mergeCell ref="O182:P182"/>
     <mergeCell ref="T182:U182"/>
     <mergeCell ref="V182:Z182"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="D183:D186"/>
-    <mergeCell ref="E183:E186"/>
-    <mergeCell ref="F183:F186"/>
     <mergeCell ref="H183:I183"/>
     <mergeCell ref="O183:P183"/>
     <mergeCell ref="T183:U183"/>
     <mergeCell ref="V183:Z183"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="F184:F186"/>
     <mergeCell ref="H184:I184"/>
     <mergeCell ref="O184:P184"/>
     <mergeCell ref="T184:U184"/>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -9437,7 +9437,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/25/2024 4:33:49 PM</t>
+            <t xml:space="preserve">6/27/2024 4:45:56 PM</t>
           </r>
           <r>
             <rPr>

--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -7197,7 +7197,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">7/9/2024 10:47:54 AM</t>
+            <t xml:space="preserve">7/9/2024 12:19:16 PM</t>
           </r>
           <r>
             <rPr>
@@ -12323,7 +12323,7 @@
       </c>
       <c s="8" t="inlineStr" r="F82">
         <is>
-          <t xml:space="preserve">PON1214PA, 793-796</t>
+          <t xml:space="preserve">PON1214PA, 853-856</t>
         </is>
       </c>
       <c s="7" r="G82">
@@ -16651,7 +16651,7 @@
       </c>
       <c s="8" t="inlineStr" r="F152">
         <is>
-          <t xml:space="preserve">PON1214PA, 801-804</t>
+          <t xml:space="preserve">PON1214PA, 861-864</t>
         </is>
       </c>
       <c s="7" r="G152">
@@ -18017,7 +18017,7 @@
       </c>
       <c s="8" t="inlineStr" r="F174">
         <is>
-          <t xml:space="preserve">PON1214PA, 797-800</t>
+          <t xml:space="preserve">PON1214PA, 857-860</t>
         </is>
       </c>
       <c s="8" t="str" r="G174"/>
